--- a/2.03_Intensivmedizin.xlsx
+++ b/2.03_Intensivmedizin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RuellMag\Documents\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B2DD98-0BFB-4065-8914-5E8E8146EDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67F62C-ED7F-4F84-B30D-E7E2AFCCA23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
+    <workbookView xWindow="48000" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Paulina" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>keine Angabe</t>
   </si>
 </sst>
 </file>
@@ -686,9 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197F20D0-436E-4AF1-BA55-80D600D9ED35}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1218,7 +1221,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>70</v>
@@ -2200,7 +2203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
